--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gpc3</t>
+  </si>
+  <si>
+    <t>Igf1r</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gpc3</t>
-  </si>
-  <si>
-    <t>Igf1r</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H2">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I2">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J2">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N2">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O2">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P2">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q2">
-        <v>17.29225019410755</v>
+        <v>3.083221083351111</v>
       </c>
       <c r="R2">
-        <v>155.630251746968</v>
+        <v>27.74898975016</v>
       </c>
       <c r="S2">
-        <v>0.01406917705845002</v>
+        <v>0.004991468547568334</v>
       </c>
       <c r="T2">
-        <v>0.01821592650384697</v>
+        <v>0.005934517647779247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H3">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I3">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J3">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P3">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q3">
-        <v>15.79546821907822</v>
+        <v>4.497625797521777</v>
       </c>
       <c r="R3">
-        <v>142.159213971704</v>
+        <v>40.47863217769599</v>
       </c>
       <c r="S3">
-        <v>0.01285137773284461</v>
+        <v>0.007281267577043667</v>
       </c>
       <c r="T3">
-        <v>0.0166391929877712</v>
+        <v>0.008656933429986101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H4">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I4">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J4">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N4">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O4">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P4">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q4">
-        <v>3.384694656916444</v>
+        <v>0.9517046660053333</v>
       </c>
       <c r="R4">
-        <v>30.462251912248</v>
+        <v>8.565341994048</v>
       </c>
       <c r="S4">
-        <v>0.002753827170114274</v>
+        <v>0.001540727628190872</v>
       </c>
       <c r="T4">
-        <v>0.003565490229222046</v>
+        <v>0.001831820678179805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H5">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I5">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J5">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N5">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O5">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P5">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q5">
-        <v>14.96507940998666</v>
+        <v>3.978197351962666</v>
       </c>
       <c r="R5">
-        <v>89.79047645991999</v>
+        <v>23.869184111776</v>
       </c>
       <c r="S5">
-        <v>0.0121757636831216</v>
+        <v>0.006440357801640006</v>
       </c>
       <c r="T5">
-        <v>0.01050963229564505</v>
+        <v>0.005104765817595573</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.349921333333333</v>
+        <v>0.3843786666666666</v>
       </c>
       <c r="H6">
-        <v>4.049764</v>
+        <v>1.153136</v>
       </c>
       <c r="I6">
-        <v>0.04667688658065213</v>
+        <v>0.02152944763922582</v>
       </c>
       <c r="J6">
-        <v>0.05517961664445568</v>
+        <v>0.02304467049228362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N6">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O6">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P6">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q6">
-        <v>5.932487134308001</v>
+        <v>0.7879519226844445</v>
       </c>
       <c r="R6">
-        <v>53.392384208772</v>
+        <v>7.09156730416</v>
       </c>
       <c r="S6">
-        <v>0.004826740936121624</v>
+        <v>0.001275626084782943</v>
       </c>
       <c r="T6">
-        <v>0.006249374627970419</v>
+        <v>0.001516632918742894</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>41.700813</v>
       </c>
       <c r="I7">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J7">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N7">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O7">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P7">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q7">
-        <v>178.0599787280673</v>
+        <v>111.4984059421283</v>
       </c>
       <c r="R7">
-        <v>1602.539808552606</v>
+        <v>1003.485653479155</v>
       </c>
       <c r="S7">
-        <v>0.1448716818012887</v>
+        <v>0.1805062858999534</v>
       </c>
       <c r="T7">
-        <v>0.1875711633464731</v>
+        <v>0.2146097343897357</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>41.700813</v>
       </c>
       <c r="I8">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J8">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P8">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q8">
         <v>162.6474694454353</v>
@@ -948,10 +948,10 @@
         <v>1463.827225008918</v>
       </c>
       <c r="S8">
-        <v>0.1323318839393399</v>
+        <v>0.2633122004978259</v>
       </c>
       <c r="T8">
-        <v>0.1713353852851568</v>
+        <v>0.3130603520463319</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>41.700813</v>
       </c>
       <c r="I9">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J9">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N9">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O9">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P9">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q9">
-        <v>34.85252941904066</v>
+        <v>34.416459384076</v>
       </c>
       <c r="R9">
-        <v>313.672764771366</v>
+        <v>309.748134456684</v>
       </c>
       <c r="S9">
-        <v>0.02835642567202792</v>
+        <v>0.05571727420453534</v>
       </c>
       <c r="T9">
-        <v>0.03671419897606766</v>
+        <v>0.06624406102169147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>41.700813</v>
       </c>
       <c r="I10">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J10">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N10">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O10">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P10">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q10">
-        <v>154.09687527619</v>
+        <v>143.863398464093</v>
       </c>
       <c r="R10">
-        <v>924.5812516571399</v>
+        <v>863.1803907845579</v>
       </c>
       <c r="S10">
-        <v>0.1253750204905878</v>
+        <v>0.2329024124988562</v>
       </c>
       <c r="T10">
-        <v>0.1082187038700169</v>
+        <v>0.1846034507363789</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>41.700813</v>
       </c>
       <c r="I11">
-        <v>0.4806364318320731</v>
+        <v>0.7785685903454991</v>
       </c>
       <c r="J11">
-        <v>0.5681898686200316</v>
+        <v>0.8333635363437939</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N11">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O11">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P11">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q11">
-        <v>61.087395861261</v>
+        <v>28.49467519950333</v>
       </c>
       <c r="R11">
-        <v>549.786562751349</v>
+        <v>256.45207679553</v>
       </c>
       <c r="S11">
-        <v>0.04970141992882864</v>
+        <v>0.0461304172443282</v>
       </c>
       <c r="T11">
-        <v>0.06435041714231718</v>
+        <v>0.05484593814965592</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H12">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I12">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J12">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N12">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O12">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P12">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q12">
-        <v>0.9912281931268887</v>
+        <v>28.24873752027251</v>
       </c>
       <c r="R12">
-        <v>8.921053738141998</v>
+        <v>169.492425121635</v>
       </c>
       <c r="S12">
-        <v>0.0008064748542200598</v>
+        <v>0.04573226539035592</v>
       </c>
       <c r="T12">
-        <v>0.001044175264170836</v>
+        <v>0.03624837506177846</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H13">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I13">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J13">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P13">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q13">
-        <v>0.9054294985695555</v>
+        <v>41.207635516201</v>
       </c>
       <c r="R13">
-        <v>8.148865487125999</v>
+        <v>247.245813097206</v>
       </c>
       <c r="S13">
-        <v>0.0007366680325767824</v>
+        <v>0.06671160161347207</v>
       </c>
       <c r="T13">
-        <v>0.0009537935789281039</v>
+        <v>0.05287704721417608</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H14">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I14">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J14">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N14">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O14">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P14">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q14">
-        <v>0.1940178248291111</v>
+        <v>8.719600242738</v>
       </c>
       <c r="R14">
-        <v>1.746160423462</v>
+        <v>52.317601456428</v>
       </c>
       <c r="S14">
-        <v>0.0001578551720785452</v>
+        <v>0.01411627943063062</v>
       </c>
       <c r="T14">
-        <v>0.0002043814077318666</v>
+        <v>0.0111888660426228</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H15">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I15">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J15">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N15">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O15">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P15">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q15">
-        <v>0.8578298634966666</v>
+        <v>36.4485872927715</v>
       </c>
       <c r="R15">
-        <v>5.146979180979999</v>
+        <v>145.794349171086</v>
       </c>
       <c r="S15">
-        <v>0.0006979404126175083</v>
+        <v>0.05900711371544864</v>
       </c>
       <c r="T15">
-        <v>0.0006024342531424887</v>
+        <v>0.03118020316747967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07738033333333333</v>
+        <v>3.5217105</v>
       </c>
       <c r="H16">
-        <v>0.232141</v>
+        <v>7.043421</v>
       </c>
       <c r="I16">
-        <v>0.002675617425538665</v>
+        <v>0.1972546563725227</v>
       </c>
       <c r="J16">
-        <v>0.003163011816851695</v>
+        <v>0.1407581725689171</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N16">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O16">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P16">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q16">
-        <v>0.340062654477</v>
+        <v>7.219283483335001</v>
       </c>
       <c r="R16">
-        <v>3.060563890293</v>
+        <v>43.31570090001001</v>
       </c>
       <c r="S16">
-        <v>0.0002766789540457691</v>
+        <v>0.01168739622261549</v>
       </c>
       <c r="T16">
-        <v>0.0003582273128784001</v>
+        <v>0.00926368108286013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H17">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I17">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J17">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N17">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O17">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P17">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q17">
-        <v>171.2578935000537</v>
+        <v>0.3791192746133334</v>
       </c>
       <c r="R17">
-        <v>1027.547361000322</v>
+        <v>3.41207347152</v>
       </c>
       <c r="S17">
-        <v>0.1393374256827761</v>
+        <v>0.0006137613501762232</v>
       </c>
       <c r="T17">
-        <v>0.1202704936674912</v>
+        <v>0.0007297206281946926</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H18">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I18">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J18">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.103086</v>
       </c>
       <c r="O18">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P18">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q18">
-        <v>156.4341588677777</v>
+        <v>0.5530374189013333</v>
       </c>
       <c r="R18">
-        <v>938.604953206666</v>
+        <v>4.977336770111999</v>
       </c>
       <c r="S18">
-        <v>0.1272766617643801</v>
+        <v>0.0008953197994722008</v>
       </c>
       <c r="T18">
-        <v>0.1098601245698522</v>
+        <v>0.001064474532843125</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H19">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I19">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J19">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N19">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O19">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P19">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q19">
-        <v>33.52112481474034</v>
+        <v>0.117023584384</v>
       </c>
       <c r="R19">
-        <v>201.126748888442</v>
+        <v>1.053212259456</v>
       </c>
       <c r="S19">
-        <v>0.02727317930998304</v>
+        <v>0.000189451072428959</v>
       </c>
       <c r="T19">
-        <v>0.02354111771062482</v>
+        <v>0.0002252444790557843</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H20">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I20">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J20">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N20">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O20">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P20">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q20">
-        <v>148.210206713795</v>
+        <v>0.489167417312</v>
       </c>
       <c r="R20">
-        <v>592.84082685518</v>
+        <v>2.935004503872</v>
       </c>
       <c r="S20">
-        <v>0.1205855580806021</v>
+        <v>0.0007919197851859103</v>
       </c>
       <c r="T20">
-        <v>0.06938975430067194</v>
+        <v>0.0006276926180506995</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>13.3692655</v>
+        <v>0.047264</v>
       </c>
       <c r="H21">
-        <v>26.738531</v>
+        <v>0.141792</v>
       </c>
       <c r="I21">
-        <v>0.4622755963632391</v>
+        <v>0.002647305642752553</v>
       </c>
       <c r="J21">
-        <v>0.3643229309697786</v>
+        <v>0.002833620595005168</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N21">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O21">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P21">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q21">
-        <v>58.75379076946052</v>
+        <v>0.09688820661333335</v>
       </c>
       <c r="R21">
-        <v>352.5227446167631</v>
+        <v>0.8719938595200001</v>
       </c>
       <c r="S21">
-        <v>0.04780277152549769</v>
+        <v>0.0001568536354892598</v>
       </c>
       <c r="T21">
-        <v>0.04126144072113845</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.223714</v>
-      </c>
-      <c r="H22">
-        <v>0.671142</v>
-      </c>
-      <c r="I22">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J22">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>12.80982066666667</v>
-      </c>
-      <c r="N22">
-        <v>38.42946199999999</v>
-      </c>
-      <c r="O22">
-        <v>0.3014163559118312</v>
-      </c>
-      <c r="P22">
-        <v>0.3301205700869483</v>
-      </c>
-      <c r="Q22">
-        <v>2.865736220622666</v>
-      </c>
-      <c r="R22">
-        <v>25.791625985604</v>
-      </c>
-      <c r="S22">
-        <v>0.002331596515096253</v>
-      </c>
-      <c r="T22">
-        <v>0.003018811304966133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.223714</v>
-      </c>
-      <c r="H23">
-        <v>0.671142</v>
-      </c>
-      <c r="I23">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J23">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>11.70102866666667</v>
-      </c>
-      <c r="N23">
-        <v>35.103086</v>
-      </c>
-      <c r="O23">
-        <v>0.2753263697363137</v>
-      </c>
-      <c r="P23">
-        <v>0.3015460055655002</v>
-      </c>
-      <c r="Q23">
-        <v>2.617683927134666</v>
-      </c>
-      <c r="R23">
-        <v>23.559155344212</v>
-      </c>
-      <c r="S23">
-        <v>0.002129778267172309</v>
-      </c>
-      <c r="T23">
-        <v>0.002757509143791771</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.223714</v>
-      </c>
-      <c r="H24">
-        <v>0.671142</v>
-      </c>
-      <c r="I24">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J24">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.507327333333333</v>
-      </c>
-      <c r="N24">
-        <v>7.521982</v>
-      </c>
-      <c r="O24">
-        <v>0.05899766183753465</v>
-      </c>
-      <c r="P24">
-        <v>0.06461607466749768</v>
-      </c>
-      <c r="Q24">
-        <v>0.5609242270493333</v>
-      </c>
-      <c r="R24">
-        <v>5.048318043444</v>
-      </c>
-      <c r="S24">
-        <v>0.0004563745133308593</v>
-      </c>
-      <c r="T24">
-        <v>0.0005908863438512819</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.223714</v>
-      </c>
-      <c r="H25">
-        <v>0.671142</v>
-      </c>
-      <c r="I25">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J25">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.08589</v>
-      </c>
-      <c r="N25">
-        <v>22.17178</v>
-      </c>
-      <c r="O25">
-        <v>0.2608520956530235</v>
-      </c>
-      <c r="P25">
-        <v>0.1904622201955989</v>
-      </c>
-      <c r="Q25">
-        <v>2.48006879546</v>
-      </c>
-      <c r="R25">
-        <v>14.88041277276</v>
-      </c>
-      <c r="S25">
-        <v>0.002017812986094398</v>
-      </c>
-      <c r="T25">
-        <v>0.001741695476122513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.223714</v>
-      </c>
-      <c r="H26">
-        <v>0.671142</v>
-      </c>
-      <c r="I26">
-        <v>0.007735467798496909</v>
-      </c>
-      <c r="J26">
-        <v>0.009144571948882275</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>4.394691000000001</v>
-      </c>
-      <c r="N26">
-        <v>13.184073</v>
-      </c>
-      <c r="O26">
-        <v>0.1034075168612968</v>
-      </c>
-      <c r="P26">
-        <v>0.113255129484455</v>
-      </c>
-      <c r="Q26">
-        <v>0.9831539023740001</v>
-      </c>
-      <c r="R26">
-        <v>8.848385121366002</v>
-      </c>
-      <c r="S26">
-        <v>0.0007999055168030877</v>
-      </c>
-      <c r="T26">
-        <v>0.001035669680150577</v>
+        <v>0.0001864883368608668</v>
       </c>
     </row>
   </sheetData>
